--- a/assets/files/CV11.xlsx
+++ b/assets/files/CV11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1998 +625,1996 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>25.125628140703519</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>37.688442211055275</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>13.06532663316583</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>19.597989949748744</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>4.5226130653266328</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>40.211640211640209</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>37.037037037037038</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>4.2328042328042326</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>18.518518518518519</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>32.47422680412371</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>37.371134020618555</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>8.7628865979381452</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>19.072164948453608</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>2.3195876288659796</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>35.08064516129032</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>18.548387096774192</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>5.241935483870968</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>36.29032258064516</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>4.838709677419355</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>248</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>38.84297520661157</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>34.710743801652896</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>6.6115702479338845</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>18.181818181818183</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>1.6528925619834711</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>121</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>36.314363143631439</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>23.848238482384822</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>5.691056910569106</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>30.352303523035232</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>3.794037940379404</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>19.727891156462587</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>48.072562358276642</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>25.85034013605442</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>5.4421768707482991</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>0.90702947845804993</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>441</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>20.92050209205021</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>52.30125523012552</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>20.92050209205021</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>5.02092050209205</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>0.83682008368200833</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>239</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>20.147058823529413</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>49.558823529411768</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>24.117647058823529</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>5.2941176470588234</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>0.88235294117647056</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>51.282051282051285</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>12.820512820512821</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>2.5641025641025643</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>78</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>36.462093862815884</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>44.765342960288805</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>14.8014440433213</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>3.9711191335740073</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
         <v>277</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>39.718309859154928</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>42.25352112676056</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>14.366197183098592</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>3.6619718309859155</v>
       </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>19.393939393939394</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>43.636363636363633</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>24.242424242424242</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>9.0909090909090917</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>3.6363636363636362</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>165</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>19</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>45</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>20</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>11</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>5</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>100</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>19.245283018867923</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>44.150943396226417</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>22.641509433962263</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>9.8113207547169807</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>4.1509433962264151</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>18.46153846153846</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>34.358974358974358</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>38.974358974358971</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>4.615384615384615</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>3.5897435897435899</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>4.694835680751174</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>32.394366197183096</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>61.032863849765256</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>0.46948356807511737</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>1.408450704225352</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>11.274509803921569</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>50.490196078431374</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>2.4509803921568629</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>2.4509803921568629</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>30.232558139534884</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>23.255813953488371</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>6.9767441860465116</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>34.883720930232556</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>4.6511627906976747</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>25.688073394495412</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>44.648318042813457</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>17.431192660550458</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>11.62079510703364</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>0.6116207951070336</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>26.216216216216218</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>42.162162162162161</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>16.216216216216218</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>14.324324324324325</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>1.0810810810810811</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>19.591836734693878</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>44.897959183673471</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>22.857142857142858</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>11.020408163265307</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>1.6326530612244898</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>245</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>32.374100719424462</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>43.884892086330936</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>12.23021582733813</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>11.510791366906474</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>24.21875</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>44.53125</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>19.010416666666668</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>11.197916666666666</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>1.0416666666666667</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>17.241379310344829</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>65.517241379310349</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>13.793103448275861</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>12.099644128113878</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>67.615658362989322</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>14.946619217081851</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>5.3380782918149468</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>13.315217391304348</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>67.119565217391298</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>14.673913043478262</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>4.8913043478260869</v>
       </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>11.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>44</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>25.5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>19</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>18.232044198895029</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>35.35911602209945</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>41.436464088397791</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>4.972375690607735</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>181</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>14.698162729658792</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>39.895013123359583</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>33.070866141732282</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>12.335958005249344</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>29.646017699115045</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>4.4247787610619467</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0.44247787610619471</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>65.486725663716811</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>49.019607843137258</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>23.529411764705884</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
         <v>26.797385620915033</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>0.65359477124183007</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>153</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>37.467018469656992</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>12.137203166226913</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>0.26385224274406333</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>49.868073878627968</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>0.26385224274406333</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>25.10822510822511</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>38.961038961038959</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>20.346320346320347</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>9.0909090909090917</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>6.4935064935064934</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>231</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>20.37037037037037</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>38.888888888888886</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>31.481481481481481</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>5.5555555555555554</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>3.7037037037037037</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>108</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>23.598820058997049</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>38.938053097345133</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>23.893805309734514</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>7.9646017699115044</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>5.6047197640117998</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>23.770491803278688</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>38.524590163934427</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>19.672131147540984</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>14.754098360655737</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>3.278688524590164</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>122</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>23.694779116465863</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>51.00401606425703</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>12.85140562248996</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>10.843373493975903</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>1.606425702811245</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>249</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>23.71967654986523</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>46.900269541778975</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>15.09433962264151</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>12.129380053908356</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>2.1563342318059298</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>56.25</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>16.666666666666668</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
         <v>22.916666666666668</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>57.485029940119759</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>24.850299401197606</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>0.29940119760479039</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>16.167664670658684</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>1.1976047904191616</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>334</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>57.329842931937172</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>23.821989528795811</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>0.26178010471204188</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>17.015706806282722</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>1.5706806282722514</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>16.666666666666668</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>38.666666666666664</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>42.666666666666664</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>15.254237288135593</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>55.508474576271183</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>27.118644067796609</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>2.1186440677966103</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>15.803108808290155</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>48.96373056994819</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>33.160621761658028</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>2.0725388601036268</v>
       </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>15.789473684210526</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>37.368421052631582</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>38.157894736842103</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>8.4210526315789469</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>0.26315789473684209</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>380</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>15.789473684210526</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>37.368421052631582</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>38.157894736842103</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>8.4210526315789469</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>0.26315789473684209</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>31.578947368421051</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>50</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>2.6315789473684212</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>10.526315789473685</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>5.2631578947368425</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>38</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>35.735735735735737</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>38.438438438438439</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>4.8048048048048049</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>17.417417417417418</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>3.6036036036036037</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>333</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>35.309973045822105</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>39.622641509433961</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>4.5822102425876015</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>16.711590296495956</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>3.7735849056603774</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>2.9069767441860463</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>48.837209302325583</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>48.255813953488371</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>172</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>2.1857923497267762</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>63.387978142076506</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>33.879781420765028</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>0.54644808743169404</v>
       </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>2.535211267605634</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>56.338028169014088</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>40.845070422535208</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>0.28169014084507044</v>
       </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>24.242424242424242</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>12.121212121212121</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>27.272727272727273</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>3.0303030303030303</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>45.528455284552848</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>29.539295392953928</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>8.4010840108401084</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>12.737127371273713</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>3.794037940379404</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>369</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>43.781094527363187</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>29.850746268656717</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>8.7064676616915424</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>13.930348258706468</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>3.7313432835820897</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>24.630541871921181</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>43.349753694581281</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>18.226600985221676</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>11.330049261083744</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>2.4630541871921183</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>27.777777777777779</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>41.666666666666664</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>13.888888888888889</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>16.111111111111111</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>0.55555555555555558</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>26.109660574412533</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>42.558746736292427</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>16.187989556135769</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>13.577023498694517</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>1.566579634464752</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>21.511627906976745</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>48.255813953488371</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>22.674418604651162</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>7.558139534883721</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <v>172</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>25.365853658536587</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>44.878048780487802</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>18.048780487804876</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>10.731707317073171</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>0.97560975609756095</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>23.607427055702917</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>46.419098143236077</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>20.159151193633953</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>9.2838196286472154</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>0.5305039787798409</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>27.659574468085108</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>46.808510638297875</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>13.829787234042554</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>10.638297872340425</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>1.0638297872340425</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>28.865979381443299</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>37.628865979381445</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>17.010309278350515</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>14.948453608247423</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>1.5463917525773196</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>194</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>28.272251308900522</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>42.146596858638745</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>15.445026178010471</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>12.827225130890053</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>1.3089005235602094</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>3.7735849056603774</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>1.8867924528301887</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
         <v>83.962264150943398</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>10.377358490566039</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>318</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>48.387096774193552</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>9.67741935483871</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>4.838709677419355</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>30.64516129032258</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="4">
         <v>6.4516129032258061</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>11.052631578947368</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>3.1578947368421053</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>0.78947368421052633</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>75.263157894736835</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>9.7368421052631575</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>29.787234042553191</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>31.382978723404257</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>16.48936170212766</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>17.021276595744681</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>5.3191489361702127</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>188</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>21.465968586387433</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>42.931937172774866</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>21.465968586387433</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>10.99476439790576</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>3.1413612565445028</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>191</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>25.593667546174142</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>37.203166226912927</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>18.997361477572561</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>13.984168865435356</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>4.2216358839050132</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>23.304347826086957</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>62.434782608695649</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>8.695652173913043</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>3.8260869565217392</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>1.7391304347826086</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>575</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>36.814814814814817</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>24.074074074074073</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>12.74074074074074</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>20</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>6.3703703703703702</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1350</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>32.779220779220779</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>35.532467532467535</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>11.532467532467532</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>15.168831168831169</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>4.9870129870129869</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1925</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>31.884057971014492</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>56.521739130434781</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>4.3478260869565215</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>5.7971014492753623</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>1.4492753623188406</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>138</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>21.320754716981131</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>59.433962264150942</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>6.7924528301886795</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>10.943396226415095</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>1.5094339622641511</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>530</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>23.50299401197605</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>58.832335329341319</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>6.2874251497005984</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>9.8802395209580833</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>1.4970059880239521</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>668</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>26.315789473684209</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>44.360902255639097</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>18.045112781954888</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>7.518796992481203</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>3.7593984962406015</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>133</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>22.75132275132275</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>47.61904761904762</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>13.756613756613756</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>14.814814814814815</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>1.0582010582010581</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>189</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>24.22360248447205</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>46.273291925465841</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>15.527950310559007</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>11.801242236024844</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>2.1739130434782608</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>36.563876651982376</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>39.647577092511014</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>9.251101321585903</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>13.656387665198238</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>0.88105726872246692</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>227</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>23.966942148760332</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>34.710743801652896</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>27.272727272727273</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>11.570247933884298</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>2.4793388429752068</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>121</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>32.183908045977013</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>37.931034482758619</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>15.517241379310345</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>12.931034482758621</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>1.4367816091954022</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>348</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>28.387096774193548</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>45.161290322580648</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>19.35483870967742</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>5.161290322580645</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>1.935483870967742</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>25.862068965517242</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>46.551724137931032</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>12.931034482758621</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>12.931034482758621</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>1.7241379310344827</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>26.873385012919897</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>45.99483204134367</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>15.503875968992247</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>9.819121447028424</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>1.8087855297157622</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>17.117117117117118</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>27.927927927927929</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>53.153153153153156</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>1.8018018018018018</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>32.720588235294116</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>36.764705882352942</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>14.705882352941176</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>15.073529411764707</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>0.73529411764705888</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>28.198433420365536</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>34.203655352480418</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>25.848563968668408</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>11.22715404699739</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>0.52219321148825071</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>73.333333333333329</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>20</v>
       </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>20</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>47.5</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>21.666666666666668</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>9.1666666666666661</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>1.6666666666666667</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>360</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>19.466666666666665</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>48.533333333333331</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>21.6</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>1.6</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>375</v>
       </c>
     </row>
